--- a/reports/transactionlog_docs_accord.xlsx
+++ b/reports/transactionlog_docs_accord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="630" windowWidth="18585" windowHeight="11535"/>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -689,53 +689,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,59 +737,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -806,9 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -840,15 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,20 +795,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,7 +1182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE19" sqref="BE19:BN19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1188,9 +1193,11 @@
     <col min="24" max="24" width="1.5703125" style="2" customWidth="1"/>
     <col min="25" max="41" width="0.85546875" style="2"/>
     <col min="42" max="42" width="0.28515625" style="2" customWidth="1"/>
-    <col min="43" max="79" width="0.85546875" style="2"/>
+    <col min="43" max="65" width="0.85546875" style="2"/>
+    <col min="66" max="66" width="1.85546875" style="2" customWidth="1"/>
+    <col min="67" max="79" width="0.85546875" style="2"/>
     <col min="80" max="80" width="3.7109375" style="2" customWidth="1"/>
-    <col min="81" max="81" width="4.85546875" style="2" customWidth="1"/>
+    <col min="81" max="81" width="6.7109375" style="2" customWidth="1"/>
     <col min="82" max="83" width="3.28515625" style="2" customWidth="1"/>
     <col min="84" max="84" width="1.5703125" style="2" customWidth="1"/>
     <col min="85" max="88" width="0.85546875" style="2"/>
@@ -1202,170 +1209,170 @@
   <sheetData>
     <row r="1" spans="1:108" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:108" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="44"/>
-      <c r="BT2" s="44"/>
-      <c r="BU2" s="44"/>
-      <c r="BV2" s="44"/>
-      <c r="BW2" s="44"/>
-      <c r="BX2" s="44"/>
-      <c r="BY2" s="44"/>
-      <c r="BZ2" s="44"/>
-      <c r="CA2" s="44"/>
-      <c r="CB2" s="44"/>
-      <c r="CC2" s="44"/>
-      <c r="CD2" s="44"/>
-      <c r="CE2" s="44"/>
-      <c r="CF2" s="44"/>
-      <c r="CG2" s="44"/>
-      <c r="CH2" s="44"/>
-      <c r="CI2" s="44"/>
-      <c r="CJ2" s="44"/>
-      <c r="CK2" s="44"/>
-      <c r="CL2" s="44"/>
-      <c r="CM2" s="44"/>
-      <c r="CN2" s="44"/>
-      <c r="CO2" s="44"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="52" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="53"/>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="53"/>
-      <c r="DA2" s="53"/>
-      <c r="DB2" s="53"/>
-      <c r="DC2" s="53"/>
-      <c r="DD2" s="54"/>
+      <c r="CR2" s="51"/>
+      <c r="CS2" s="51"/>
+      <c r="CT2" s="51"/>
+      <c r="CU2" s="51"/>
+      <c r="CV2" s="51"/>
+      <c r="CW2" s="51"/>
+      <c r="CX2" s="51"/>
+      <c r="CY2" s="51"/>
+      <c r="CZ2" s="51"/>
+      <c r="DA2" s="51"/>
+      <c r="DB2" s="51"/>
+      <c r="DC2" s="51"/>
+      <c r="DD2" s="80"/>
     </row>
     <row r="3" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CO3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CQ3" s="55" t="s">
+      <c r="CQ3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="56"/>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="56"/>
-      <c r="DA3" s="56"/>
-      <c r="DB3" s="56"/>
-      <c r="DC3" s="56"/>
-      <c r="DD3" s="57"/>
+      <c r="CR3" s="82"/>
+      <c r="CS3" s="82"/>
+      <c r="CT3" s="82"/>
+      <c r="CU3" s="82"/>
+      <c r="CV3" s="82"/>
+      <c r="CW3" s="82"/>
+      <c r="CX3" s="82"/>
+      <c r="CY3" s="82"/>
+      <c r="CZ3" s="82"/>
+      <c r="DA3" s="82"/>
+      <c r="DB3" s="82"/>
+      <c r="DC3" s="82"/>
+      <c r="DD3" s="83"/>
     </row>
     <row r="4" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="75">
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="38">
         <v>20</v>
       </c>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
       <c r="BF4" s="39"/>
       <c r="BG4" s="39"/>
       <c r="BH4" s="39"/>
@@ -1376,147 +1383,147 @@
       <c r="CO4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="CQ4" s="58"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59"/>
-      <c r="CT4" s="59"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="59"/>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="59"/>
-      <c r="DA4" s="59"/>
-      <c r="DB4" s="59"/>
-      <c r="DC4" s="59"/>
-      <c r="DD4" s="60"/>
+      <c r="CQ4" s="84"/>
+      <c r="CR4" s="85"/>
+      <c r="CS4" s="85"/>
+      <c r="CT4" s="85"/>
+      <c r="CU4" s="85"/>
+      <c r="CV4" s="85"/>
+      <c r="CW4" s="85"/>
+      <c r="CX4" s="85"/>
+      <c r="CY4" s="85"/>
+      <c r="CZ4" s="85"/>
+      <c r="DA4" s="85"/>
+      <c r="DB4" s="85"/>
+      <c r="DC4" s="85"/>
+      <c r="DD4" s="86"/>
     </row>
     <row r="5" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CO5" s="5"/>
-      <c r="CQ5" s="61"/>
-      <c r="CR5" s="62"/>
-      <c r="CS5" s="62"/>
-      <c r="CT5" s="62"/>
-      <c r="CU5" s="62"/>
-      <c r="CV5" s="62"/>
-      <c r="CW5" s="62"/>
-      <c r="CX5" s="62"/>
-      <c r="CY5" s="62"/>
-      <c r="CZ5" s="62"/>
-      <c r="DA5" s="62"/>
-      <c r="DB5" s="62"/>
-      <c r="DC5" s="62"/>
-      <c r="DD5" s="63"/>
+      <c r="CQ5" s="87"/>
+      <c r="CR5" s="88"/>
+      <c r="CS5" s="88"/>
+      <c r="CT5" s="88"/>
+      <c r="CU5" s="88"/>
+      <c r="CV5" s="88"/>
+      <c r="CW5" s="88"/>
+      <c r="CX5" s="88"/>
+      <c r="CY5" s="88"/>
+      <c r="CZ5" s="88"/>
+      <c r="DA5" s="88"/>
+      <c r="DB5" s="88"/>
+      <c r="DC5" s="88"/>
+      <c r="DD5" s="89"/>
     </row>
     <row r="6" spans="1:108" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
-      <c r="BC6" s="76"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="76"/>
-      <c r="BG6" s="76"/>
-      <c r="BH6" s="76"/>
-      <c r="BI6" s="76"/>
-      <c r="BJ6" s="76"/>
-      <c r="BK6" s="76"/>
-      <c r="BL6" s="76"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="76"/>
-      <c r="BO6" s="76"/>
-      <c r="BP6" s="76"/>
-      <c r="BQ6" s="76"/>
-      <c r="BR6" s="76"/>
-      <c r="BS6" s="76"/>
-      <c r="BT6" s="76"/>
-      <c r="BU6" s="76"/>
-      <c r="BV6" s="76"/>
-      <c r="BW6" s="76"/>
-      <c r="BX6" s="76"/>
-      <c r="BY6" s="76"/>
-      <c r="BZ6" s="76"/>
-      <c r="CA6" s="76"/>
-      <c r="CB6" s="76"/>
-      <c r="CC6" s="76"/>
-      <c r="CG6" s="96" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
+      <c r="BQ6" s="57"/>
+      <c r="BR6" s="57"/>
+      <c r="BS6" s="57"/>
+      <c r="BT6" s="57"/>
+      <c r="BU6" s="57"/>
+      <c r="BV6" s="57"/>
+      <c r="BW6" s="57"/>
+      <c r="BX6" s="57"/>
+      <c r="BY6" s="57"/>
+      <c r="BZ6" s="57"/>
+      <c r="CA6" s="57"/>
+      <c r="CB6" s="57"/>
+      <c r="CC6" s="57"/>
+      <c r="CG6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="CH6" s="96"/>
-      <c r="CI6" s="96"/>
-      <c r="CJ6" s="96"/>
-      <c r="CK6" s="96"/>
-      <c r="CL6" s="96"/>
-      <c r="CM6" s="96"/>
-      <c r="CN6" s="96"/>
-      <c r="CO6" s="96"/>
-      <c r="CQ6" s="64"/>
-      <c r="CR6" s="37"/>
-      <c r="CS6" s="37"/>
-      <c r="CT6" s="37"/>
-      <c r="CU6" s="37"/>
-      <c r="CV6" s="37"/>
-      <c r="CW6" s="37"/>
-      <c r="CX6" s="37"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="37"/>
-      <c r="DA6" s="37"/>
-      <c r="DB6" s="37"/>
-      <c r="DC6" s="37"/>
-      <c r="DD6" s="65"/>
+      <c r="CH6" s="36"/>
+      <c r="CI6" s="36"/>
+      <c r="CJ6" s="36"/>
+      <c r="CK6" s="36"/>
+      <c r="CL6" s="36"/>
+      <c r="CM6" s="36"/>
+      <c r="CN6" s="36"/>
+      <c r="CO6" s="36"/>
+      <c r="CQ6" s="90"/>
+      <c r="CR6" s="40"/>
+      <c r="CS6" s="40"/>
+      <c r="CT6" s="40"/>
+      <c r="CU6" s="40"/>
+      <c r="CV6" s="40"/>
+      <c r="CW6" s="40"/>
+      <c r="CX6" s="40"/>
+      <c r="CY6" s="40"/>
+      <c r="CZ6" s="40"/>
+      <c r="DA6" s="40"/>
+      <c r="DB6" s="40"/>
+      <c r="DC6" s="40"/>
+      <c r="DD6" s="91"/>
     </row>
     <row r="7" spans="1:108" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L7" s="7"/>
@@ -1590,20 +1597,20 @@
       <c r="CB7" s="8"/>
       <c r="CC7" s="8"/>
       <c r="CO7" s="5"/>
-      <c r="CQ7" s="61"/>
-      <c r="CR7" s="62"/>
-      <c r="CS7" s="62"/>
-      <c r="CT7" s="62"/>
-      <c r="CU7" s="62"/>
-      <c r="CV7" s="62"/>
-      <c r="CW7" s="62"/>
-      <c r="CX7" s="62"/>
-      <c r="CY7" s="62"/>
-      <c r="CZ7" s="62"/>
-      <c r="DA7" s="62"/>
-      <c r="DB7" s="62"/>
-      <c r="DC7" s="62"/>
-      <c r="DD7" s="63"/>
+      <c r="CQ7" s="87"/>
+      <c r="CR7" s="88"/>
+      <c r="CS7" s="88"/>
+      <c r="CT7" s="88"/>
+      <c r="CU7" s="88"/>
+      <c r="CV7" s="88"/>
+      <c r="CW7" s="88"/>
+      <c r="CX7" s="88"/>
+      <c r="CY7" s="88"/>
+      <c r="CZ7" s="88"/>
+      <c r="DA7" s="88"/>
+      <c r="DB7" s="88"/>
+      <c r="DC7" s="88"/>
+      <c r="DD7" s="89"/>
     </row>
     <row r="8" spans="1:108" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L8" s="7"/>
@@ -1653,147 +1660,147 @@
         <v>31</v>
       </c>
       <c r="BD8" s="9"/>
-      <c r="BE8" s="84"/>
-      <c r="BF8" s="85"/>
-      <c r="BG8" s="85"/>
-      <c r="BH8" s="85"/>
-      <c r="BI8" s="85"/>
-      <c r="BJ8" s="85"/>
-      <c r="BK8" s="85"/>
-      <c r="BL8" s="85"/>
-      <c r="BM8" s="85"/>
-      <c r="BN8" s="85"/>
-      <c r="BO8" s="85"/>
-      <c r="BP8" s="85"/>
-      <c r="BQ8" s="85"/>
-      <c r="BR8" s="85"/>
-      <c r="BS8" s="85"/>
-      <c r="BT8" s="85"/>
-      <c r="BU8" s="85"/>
-      <c r="BV8" s="85"/>
-      <c r="BW8" s="85"/>
-      <c r="BX8" s="85"/>
-      <c r="BY8" s="85"/>
-      <c r="BZ8" s="85"/>
-      <c r="CA8" s="85"/>
-      <c r="CB8" s="85"/>
-      <c r="CC8" s="86"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="66"/>
+      <c r="BN8" s="66"/>
+      <c r="BO8" s="66"/>
+      <c r="BP8" s="66"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="66"/>
+      <c r="BT8" s="66"/>
+      <c r="BU8" s="66"/>
+      <c r="BV8" s="66"/>
+      <c r="BW8" s="66"/>
+      <c r="BX8" s="66"/>
+      <c r="BY8" s="66"/>
+      <c r="BZ8" s="66"/>
+      <c r="CA8" s="66"/>
+      <c r="CB8" s="66"/>
+      <c r="CC8" s="67"/>
       <c r="CO8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="CQ8" s="64"/>
-      <c r="CR8" s="37"/>
-      <c r="CS8" s="37"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="37"/>
-      <c r="CY8" s="37"/>
-      <c r="CZ8" s="37"/>
-      <c r="DA8" s="37"/>
-      <c r="DB8" s="37"/>
-      <c r="DC8" s="37"/>
-      <c r="DD8" s="65"/>
+      <c r="CQ8" s="90"/>
+      <c r="CR8" s="40"/>
+      <c r="CS8" s="40"/>
+      <c r="CT8" s="40"/>
+      <c r="CU8" s="40"/>
+      <c r="CV8" s="40"/>
+      <c r="CW8" s="40"/>
+      <c r="CX8" s="40"/>
+      <c r="CY8" s="40"/>
+      <c r="CZ8" s="40"/>
+      <c r="DA8" s="40"/>
+      <c r="DB8" s="40"/>
+      <c r="DC8" s="40"/>
+      <c r="DD8" s="91"/>
     </row>
     <row r="9" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="83"/>
-      <c r="BO9" s="83"/>
-      <c r="BP9" s="83"/>
-      <c r="BQ9" s="83"/>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="83"/>
-      <c r="BT9" s="83"/>
-      <c r="BU9" s="83"/>
-      <c r="BV9" s="83"/>
-      <c r="BW9" s="83"/>
-      <c r="BX9" s="83"/>
-      <c r="BY9" s="83"/>
-      <c r="BZ9" s="83"/>
-      <c r="CA9" s="83"/>
-      <c r="CB9" s="83"/>
-      <c r="CC9" s="83"/>
-      <c r="CQ9" s="58"/>
-      <c r="CR9" s="59"/>
-      <c r="CS9" s="59"/>
-      <c r="CT9" s="59"/>
-      <c r="CU9" s="59"/>
-      <c r="CV9" s="59"/>
-      <c r="CW9" s="59"/>
-      <c r="CX9" s="59"/>
-      <c r="CY9" s="59"/>
-      <c r="CZ9" s="59"/>
-      <c r="DA9" s="59"/>
-      <c r="DB9" s="59"/>
-      <c r="DC9" s="59"/>
-      <c r="DD9" s="60"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="64"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="64"/>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="64"/>
+      <c r="BT9" s="64"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="64"/>
+      <c r="BW9" s="64"/>
+      <c r="BX9" s="64"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="64"/>
+      <c r="CA9" s="64"/>
+      <c r="CB9" s="64"/>
+      <c r="CC9" s="64"/>
+      <c r="CQ9" s="84"/>
+      <c r="CR9" s="85"/>
+      <c r="CS9" s="85"/>
+      <c r="CT9" s="85"/>
+      <c r="CU9" s="85"/>
+      <c r="CV9" s="85"/>
+      <c r="CW9" s="85"/>
+      <c r="CX9" s="85"/>
+      <c r="CY9" s="85"/>
+      <c r="CZ9" s="85"/>
+      <c r="DA9" s="85"/>
+      <c r="DB9" s="85"/>
+      <c r="DC9" s="85"/>
+      <c r="DD9" s="86"/>
     </row>
     <row r="10" spans="1:108" s="11" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1802,536 +1809,536 @@
       <c r="CO10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="CQ10" s="66" t="s">
+      <c r="CQ10" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="CR10" s="67"/>
-      <c r="CS10" s="67"/>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="67"/>
-      <c r="CV10" s="67"/>
-      <c r="CW10" s="67"/>
-      <c r="CX10" s="67"/>
-      <c r="CY10" s="67"/>
-      <c r="CZ10" s="67"/>
-      <c r="DA10" s="67"/>
-      <c r="DB10" s="67"/>
-      <c r="DC10" s="67"/>
-      <c r="DD10" s="68"/>
+      <c r="CR10" s="93"/>
+      <c r="CS10" s="93"/>
+      <c r="CT10" s="93"/>
+      <c r="CU10" s="93"/>
+      <c r="CV10" s="93"/>
+      <c r="CW10" s="93"/>
+      <c r="CX10" s="93"/>
+      <c r="CY10" s="93"/>
+      <c r="CZ10" s="93"/>
+      <c r="DA10" s="93"/>
+      <c r="DB10" s="93"/>
+      <c r="DC10" s="93"/>
+      <c r="DD10" s="94"/>
     </row>
     <row r="12" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="77" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="77" t="s">
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="60"/>
+      <c r="BE12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="78"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="78"/>
-      <c r="BK12" s="78"/>
-      <c r="BL12" s="78"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="78"/>
-      <c r="BO12" s="78"/>
-      <c r="BP12" s="79"/>
-      <c r="BQ12" s="87" t="s">
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BR12" s="88"/>
-      <c r="BS12" s="88"/>
-      <c r="BT12" s="88"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="88"/>
-      <c r="BW12" s="88"/>
-      <c r="BX12" s="88"/>
-      <c r="BY12" s="88"/>
-      <c r="BZ12" s="88"/>
-      <c r="CA12" s="88"/>
-      <c r="CB12" s="88"/>
-      <c r="CC12" s="88"/>
-      <c r="CD12" s="88"/>
-      <c r="CE12" s="88"/>
-      <c r="CF12" s="88"/>
-      <c r="CG12" s="88"/>
-      <c r="CH12" s="88"/>
-      <c r="CI12" s="88"/>
-      <c r="CJ12" s="88"/>
-      <c r="CK12" s="88"/>
-      <c r="CL12" s="88"/>
-      <c r="CM12" s="88"/>
-      <c r="CN12" s="88"/>
-      <c r="CO12" s="88"/>
-      <c r="CP12" s="89"/>
-      <c r="CQ12" s="52" t="s">
+      <c r="BR12" s="45"/>
+      <c r="BS12" s="45"/>
+      <c r="BT12" s="45"/>
+      <c r="BU12" s="45"/>
+      <c r="BV12" s="45"/>
+      <c r="BW12" s="45"/>
+      <c r="BX12" s="45"/>
+      <c r="BY12" s="45"/>
+      <c r="BZ12" s="45"/>
+      <c r="CA12" s="45"/>
+      <c r="CB12" s="45"/>
+      <c r="CC12" s="45"/>
+      <c r="CD12" s="45"/>
+      <c r="CE12" s="45"/>
+      <c r="CF12" s="45"/>
+      <c r="CG12" s="45"/>
+      <c r="CH12" s="45"/>
+      <c r="CI12" s="45"/>
+      <c r="CJ12" s="45"/>
+      <c r="CK12" s="45"/>
+      <c r="CL12" s="45"/>
+      <c r="CM12" s="45"/>
+      <c r="CN12" s="45"/>
+      <c r="CO12" s="45"/>
+      <c r="CP12" s="46"/>
+      <c r="CQ12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="CR12" s="53"/>
-      <c r="CS12" s="53"/>
-      <c r="CT12" s="53"/>
-      <c r="CU12" s="53"/>
-      <c r="CV12" s="53"/>
-      <c r="CW12" s="53"/>
-      <c r="CX12" s="53"/>
-      <c r="CY12" s="53"/>
-      <c r="CZ12" s="53"/>
-      <c r="DA12" s="53"/>
-      <c r="DB12" s="53"/>
-      <c r="DC12" s="53"/>
-      <c r="DD12" s="53"/>
+      <c r="CR12" s="51"/>
+      <c r="CS12" s="51"/>
+      <c r="CT12" s="51"/>
+      <c r="CU12" s="51"/>
+      <c r="CV12" s="51"/>
+      <c r="CW12" s="51"/>
+      <c r="CX12" s="51"/>
+      <c r="CY12" s="51"/>
+      <c r="CZ12" s="51"/>
+      <c r="DA12" s="51"/>
+      <c r="DB12" s="51"/>
+      <c r="DC12" s="51"/>
+      <c r="DD12" s="51"/>
     </row>
     <row r="13" spans="1:108" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="82"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="81"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="81"/>
-      <c r="BK13" s="81"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="81"/>
-      <c r="BP13" s="82"/>
-      <c r="BQ13" s="87" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="62"/>
+      <c r="BA13" s="62"/>
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="62"/>
+      <c r="BD13" s="63"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="62"/>
+      <c r="BG13" s="62"/>
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="62"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="62"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="62"/>
+      <c r="BN13" s="62"/>
+      <c r="BO13" s="62"/>
+      <c r="BP13" s="63"/>
+      <c r="BQ13" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BR13" s="88"/>
-      <c r="BS13" s="88"/>
-      <c r="BT13" s="88"/>
-      <c r="BU13" s="88"/>
-      <c r="BV13" s="88"/>
-      <c r="BW13" s="88"/>
-      <c r="BX13" s="88"/>
-      <c r="BY13" s="88"/>
-      <c r="BZ13" s="88"/>
-      <c r="CA13" s="88"/>
-      <c r="CB13" s="88"/>
-      <c r="CC13" s="89"/>
-      <c r="CD13" s="87" t="s">
+      <c r="BR13" s="45"/>
+      <c r="BS13" s="45"/>
+      <c r="BT13" s="45"/>
+      <c r="BU13" s="45"/>
+      <c r="BV13" s="45"/>
+      <c r="BW13" s="45"/>
+      <c r="BX13" s="45"/>
+      <c r="BY13" s="45"/>
+      <c r="BZ13" s="45"/>
+      <c r="CA13" s="45"/>
+      <c r="CB13" s="45"/>
+      <c r="CC13" s="46"/>
+      <c r="CD13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="CE13" s="88"/>
-      <c r="CF13" s="88"/>
-      <c r="CG13" s="88"/>
-      <c r="CH13" s="88"/>
-      <c r="CI13" s="88"/>
-      <c r="CJ13" s="88"/>
-      <c r="CK13" s="88"/>
-      <c r="CL13" s="88"/>
-      <c r="CM13" s="88"/>
-      <c r="CN13" s="88"/>
-      <c r="CO13" s="88"/>
-      <c r="CP13" s="89"/>
-      <c r="CQ13" s="94"/>
-      <c r="CR13" s="95"/>
-      <c r="CS13" s="95"/>
-      <c r="CT13" s="95"/>
-      <c r="CU13" s="95"/>
-      <c r="CV13" s="95"/>
-      <c r="CW13" s="95"/>
-      <c r="CX13" s="95"/>
-      <c r="CY13" s="95"/>
-      <c r="CZ13" s="95"/>
-      <c r="DA13" s="95"/>
-      <c r="DB13" s="95"/>
-      <c r="DC13" s="95"/>
-      <c r="DD13" s="95"/>
+      <c r="CE13" s="45"/>
+      <c r="CF13" s="45"/>
+      <c r="CG13" s="45"/>
+      <c r="CH13" s="45"/>
+      <c r="CI13" s="45"/>
+      <c r="CJ13" s="45"/>
+      <c r="CK13" s="45"/>
+      <c r="CL13" s="45"/>
+      <c r="CM13" s="45"/>
+      <c r="CN13" s="45"/>
+      <c r="CO13" s="45"/>
+      <c r="CP13" s="46"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="53"/>
+      <c r="CS13" s="53"/>
+      <c r="CT13" s="53"/>
+      <c r="CU13" s="53"/>
+      <c r="CV13" s="53"/>
+      <c r="CW13" s="53"/>
+      <c r="CX13" s="53"/>
+      <c r="CY13" s="53"/>
+      <c r="CZ13" s="53"/>
+      <c r="DA13" s="53"/>
+      <c r="DB13" s="53"/>
+      <c r="DC13" s="53"/>
+      <c r="DD13" s="53"/>
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A14" s="88">
+      <c r="A14" s="45">
         <v>1</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="87">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="44">
         <v>2</v>
       </c>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="87">
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="44">
         <v>3</v>
       </c>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
-      <c r="BK14" s="88"/>
-      <c r="BL14" s="88"/>
-      <c r="BM14" s="88"/>
-      <c r="BN14" s="88"/>
-      <c r="BO14" s="88"/>
-      <c r="BP14" s="89"/>
-      <c r="BQ14" s="87">
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="45"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="44">
         <v>4</v>
       </c>
-      <c r="BR14" s="88"/>
-      <c r="BS14" s="88"/>
-      <c r="BT14" s="88"/>
-      <c r="BU14" s="88"/>
-      <c r="BV14" s="88"/>
-      <c r="BW14" s="88"/>
-      <c r="BX14" s="88"/>
-      <c r="BY14" s="88"/>
-      <c r="BZ14" s="88"/>
-      <c r="CA14" s="88"/>
-      <c r="CB14" s="88"/>
-      <c r="CC14" s="89"/>
-      <c r="CD14" s="87">
+      <c r="BR14" s="45"/>
+      <c r="BS14" s="45"/>
+      <c r="BT14" s="45"/>
+      <c r="BU14" s="45"/>
+      <c r="BV14" s="45"/>
+      <c r="BW14" s="45"/>
+      <c r="BX14" s="45"/>
+      <c r="BY14" s="45"/>
+      <c r="BZ14" s="45"/>
+      <c r="CA14" s="45"/>
+      <c r="CB14" s="45"/>
+      <c r="CC14" s="46"/>
+      <c r="CD14" s="44">
         <v>5</v>
       </c>
-      <c r="CE14" s="88"/>
-      <c r="CF14" s="88"/>
-      <c r="CG14" s="88"/>
-      <c r="CH14" s="88"/>
-      <c r="CI14" s="88"/>
-      <c r="CJ14" s="88"/>
-      <c r="CK14" s="88"/>
-      <c r="CL14" s="88"/>
-      <c r="CM14" s="88"/>
-      <c r="CN14" s="88"/>
-      <c r="CO14" s="88"/>
-      <c r="CP14" s="89"/>
-      <c r="CQ14" s="87">
+      <c r="CE14" s="45"/>
+      <c r="CF14" s="45"/>
+      <c r="CG14" s="45"/>
+      <c r="CH14" s="45"/>
+      <c r="CI14" s="45"/>
+      <c r="CJ14" s="45"/>
+      <c r="CK14" s="45"/>
+      <c r="CL14" s="45"/>
+      <c r="CM14" s="45"/>
+      <c r="CN14" s="45"/>
+      <c r="CO14" s="45"/>
+      <c r="CP14" s="46"/>
+      <c r="CQ14" s="44">
         <v>6</v>
       </c>
-      <c r="CR14" s="88"/>
-      <c r="CS14" s="88"/>
-      <c r="CT14" s="88"/>
-      <c r="CU14" s="88"/>
-      <c r="CV14" s="88"/>
-      <c r="CW14" s="88"/>
-      <c r="CX14" s="88"/>
-      <c r="CY14" s="88"/>
-      <c r="CZ14" s="88"/>
-      <c r="DA14" s="88"/>
-      <c r="DB14" s="88"/>
-      <c r="DC14" s="88"/>
-      <c r="DD14" s="88"/>
+      <c r="CR14" s="45"/>
+      <c r="CS14" s="45"/>
+      <c r="CT14" s="45"/>
+      <c r="CU14" s="45"/>
+      <c r="CV14" s="45"/>
+      <c r="CW14" s="45"/>
+      <c r="CX14" s="45"/>
+      <c r="CY14" s="45"/>
+      <c r="CZ14" s="45"/>
+      <c r="DA14" s="45"/>
+      <c r="DB14" s="45"/>
+      <c r="DC14" s="45"/>
+      <c r="DD14" s="45"/>
     </row>
     <row r="15" spans="1:108" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="70"/>
-      <c r="BG15" s="70"/>
-      <c r="BH15" s="70"/>
-      <c r="BI15" s="70"/>
-      <c r="BJ15" s="70"/>
-      <c r="BK15" s="70"/>
-      <c r="BL15" s="70"/>
-      <c r="BM15" s="70"/>
-      <c r="BN15" s="70"/>
-      <c r="BO15" s="70"/>
-      <c r="BP15" s="71"/>
-      <c r="BQ15" s="69"/>
-      <c r="BR15" s="70"/>
-      <c r="BS15" s="70"/>
-      <c r="BT15" s="70"/>
-      <c r="BU15" s="70"/>
-      <c r="BV15" s="70"/>
-      <c r="BW15" s="70"/>
-      <c r="BX15" s="70"/>
-      <c r="BY15" s="70"/>
-      <c r="BZ15" s="70"/>
-      <c r="CA15" s="70"/>
-      <c r="CB15" s="70"/>
-      <c r="CC15" s="71"/>
-      <c r="CD15" s="69"/>
-      <c r="CE15" s="70"/>
-      <c r="CF15" s="70"/>
-      <c r="CG15" s="70"/>
-      <c r="CH15" s="70"/>
-      <c r="CI15" s="70"/>
-      <c r="CJ15" s="70"/>
-      <c r="CK15" s="70"/>
-      <c r="CL15" s="70"/>
-      <c r="CM15" s="70"/>
-      <c r="CN15" s="70"/>
-      <c r="CO15" s="70"/>
-      <c r="CP15" s="71"/>
-      <c r="CQ15" s="97"/>
-      <c r="CR15" s="98"/>
-      <c r="CS15" s="98"/>
-      <c r="CT15" s="98"/>
-      <c r="CU15" s="98"/>
-      <c r="CV15" s="98"/>
-      <c r="CW15" s="98"/>
-      <c r="CX15" s="98"/>
-      <c r="CY15" s="98"/>
-      <c r="CZ15" s="98"/>
-      <c r="DA15" s="98"/>
-      <c r="DB15" s="98"/>
-      <c r="DC15" s="98"/>
-      <c r="DD15" s="98"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="47"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="48"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="47"/>
+      <c r="BR15" s="48"/>
+      <c r="BS15" s="48"/>
+      <c r="BT15" s="48"/>
+      <c r="BU15" s="48"/>
+      <c r="BV15" s="48"/>
+      <c r="BW15" s="48"/>
+      <c r="BX15" s="48"/>
+      <c r="BY15" s="48"/>
+      <c r="BZ15" s="48"/>
+      <c r="CA15" s="48"/>
+      <c r="CB15" s="48"/>
+      <c r="CC15" s="49"/>
+      <c r="CD15" s="47"/>
+      <c r="CE15" s="48"/>
+      <c r="CF15" s="48"/>
+      <c r="CG15" s="48"/>
+      <c r="CH15" s="48"/>
+      <c r="CI15" s="48"/>
+      <c r="CJ15" s="48"/>
+      <c r="CK15" s="48"/>
+      <c r="CL15" s="48"/>
+      <c r="CM15" s="48"/>
+      <c r="CN15" s="48"/>
+      <c r="CO15" s="48"/>
+      <c r="CP15" s="49"/>
+      <c r="CQ15" s="42"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="43"/>
+      <c r="CU15" s="43"/>
+      <c r="CV15" s="43"/>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="43"/>
+      <c r="DB15" s="43"/>
+      <c r="DC15" s="43"/>
+      <c r="DD15" s="43"/>
     </row>
     <row r="16" spans="1:108" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
@@ -2382,20 +2389,20 @@
       <c r="CN16" s="3"/>
       <c r="CO16" s="3"/>
       <c r="CP16" s="3"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="51"/>
-      <c r="CS16" s="51"/>
-      <c r="CT16" s="51"/>
-      <c r="CU16" s="51"/>
-      <c r="CV16" s="51"/>
-      <c r="CW16" s="51"/>
-      <c r="CX16" s="51"/>
-      <c r="CY16" s="51"/>
-      <c r="CZ16" s="51"/>
-      <c r="DA16" s="51"/>
-      <c r="DB16" s="51"/>
-      <c r="DC16" s="51"/>
-      <c r="DD16" s="51"/>
+      <c r="CQ16" s="78"/>
+      <c r="CR16" s="79"/>
+      <c r="CS16" s="79"/>
+      <c r="CT16" s="79"/>
+      <c r="CU16" s="79"/>
+      <c r="CV16" s="79"/>
+      <c r="CW16" s="79"/>
+      <c r="CX16" s="79"/>
+      <c r="CY16" s="79"/>
+      <c r="CZ16" s="79"/>
+      <c r="DA16" s="79"/>
+      <c r="DB16" s="79"/>
+      <c r="DC16" s="79"/>
+      <c r="DD16" s="79"/>
     </row>
     <row r="18" spans="1:108" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2405,197 +2412,197 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="72"/>
-      <c r="BA19" s="72"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="46"/>
-      <c r="BK19" s="46"/>
-      <c r="BL19" s="46"/>
-      <c r="BM19" s="46"/>
-      <c r="BN19" s="46"/>
-      <c r="BP19" s="46"/>
-      <c r="BQ19" s="46"/>
-      <c r="BR19" s="46"/>
-      <c r="BS19" s="46"/>
-      <c r="BT19" s="46"/>
-      <c r="BU19" s="46"/>
-      <c r="BV19" s="46"/>
-      <c r="BW19" s="46"/>
-      <c r="BX19" s="46"/>
-      <c r="BY19" s="46"/>
-      <c r="CA19" s="46"/>
-      <c r="CB19" s="46"/>
-      <c r="CC19" s="46"/>
-      <c r="CD19" s="46"/>
-      <c r="CE19" s="46"/>
-      <c r="CF19" s="46"/>
-      <c r="CG19" s="46"/>
-      <c r="CH19" s="46"/>
-      <c r="CI19" s="46"/>
-      <c r="CJ19" s="46"/>
-      <c r="CK19" s="46"/>
-      <c r="CL19" s="46"/>
-      <c r="CM19" s="46"/>
-      <c r="CN19" s="46"/>
-      <c r="CO19" s="46"/>
-      <c r="CP19" s="46"/>
-      <c r="CQ19" s="46"/>
+    <row r="19" spans="1:108" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BE19" s="74"/>
+      <c r="BF19" s="74"/>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="74"/>
+      <c r="BJ19" s="74"/>
+      <c r="BK19" s="74"/>
+      <c r="BL19" s="74"/>
+      <c r="BM19" s="74"/>
+      <c r="BN19" s="74"/>
+      <c r="BP19" s="41"/>
+      <c r="BQ19" s="41"/>
+      <c r="BR19" s="41"/>
+      <c r="BS19" s="41"/>
+      <c r="BT19" s="41"/>
+      <c r="BU19" s="41"/>
+      <c r="BV19" s="41"/>
+      <c r="BW19" s="41"/>
+      <c r="BX19" s="41"/>
+      <c r="BY19" s="41"/>
+      <c r="CA19" s="41"/>
+      <c r="CB19" s="41"/>
+      <c r="CC19" s="41"/>
+      <c r="CD19" s="41"/>
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="41"/>
+      <c r="CH19" s="41"/>
+      <c r="CI19" s="41"/>
+      <c r="CJ19" s="41"/>
+      <c r="CK19" s="41"/>
+      <c r="CL19" s="41"/>
+      <c r="CM19" s="41"/>
+      <c r="CN19" s="41"/>
+      <c r="CO19" s="41"/>
+      <c r="CP19" s="41"/>
+      <c r="CQ19" s="41"/>
     </row>
     <row r="20" spans="1:108" s="14" customFormat="1" ht="9.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="L20" s="36" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="L20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="W20" s="36" t="s">
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="W20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AO20" s="36" t="s">
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AO20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BE20" s="36" t="s">
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BE20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BP20" s="36" t="s">
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="37"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+      <c r="BP20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="CA20" s="36" t="s">
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="37"/>
+      <c r="BU20" s="37"/>
+      <c r="BV20" s="37"/>
+      <c r="BW20" s="37"/>
+      <c r="BX20" s="37"/>
+      <c r="BY20" s="37"/>
+      <c r="CA20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="36"/>
-      <c r="CF20" s="36"/>
-      <c r="CG20" s="36"/>
-      <c r="CH20" s="36"/>
-      <c r="CI20" s="36"/>
-      <c r="CJ20" s="36"/>
-      <c r="CK20" s="36"/>
-      <c r="CL20" s="36"/>
-      <c r="CM20" s="36"/>
-      <c r="CN20" s="36"/>
-      <c r="CO20" s="36"/>
-      <c r="CP20" s="36"/>
-      <c r="CQ20" s="36"/>
+      <c r="CB20" s="37"/>
+      <c r="CC20" s="37"/>
+      <c r="CD20" s="37"/>
+      <c r="CE20" s="37"/>
+      <c r="CF20" s="37"/>
+      <c r="CG20" s="37"/>
+      <c r="CH20" s="37"/>
+      <c r="CI20" s="37"/>
+      <c r="CJ20" s="37"/>
+      <c r="CK20" s="37"/>
+      <c r="CL20" s="37"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
+      <c r="CO20" s="37"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
     </row>
     <row r="21" spans="1:108" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC21" s="15"/>
@@ -2676,37 +2683,37 @@
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="75">
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="38">
         <v>20</v>
       </c>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
       <c r="AE22" s="39"/>
       <c r="AF22" s="39"/>
       <c r="AG22" s="39"/>
@@ -2731,37 +2738,37 @@
       <c r="BF22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
+      <c r="BG22" s="40"/>
+      <c r="BH22" s="40"/>
+      <c r="BI22" s="40"/>
+      <c r="BJ22" s="40"/>
       <c r="BK22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BM22" s="37"/>
-      <c r="BN22" s="37"/>
-      <c r="BO22" s="37"/>
-      <c r="BP22" s="37"/>
-      <c r="BQ22" s="37"/>
-      <c r="BR22" s="37"/>
-      <c r="BS22" s="37"/>
-      <c r="BT22" s="37"/>
-      <c r="BU22" s="37"/>
-      <c r="BV22" s="37"/>
-      <c r="BW22" s="37"/>
-      <c r="BX22" s="37"/>
-      <c r="BY22" s="37"/>
-      <c r="BZ22" s="37"/>
-      <c r="CA22" s="37"/>
-      <c r="CB22" s="37"/>
-      <c r="CC22" s="37"/>
-      <c r="CD22" s="37"/>
-      <c r="CE22" s="75">
+      <c r="BM22" s="40"/>
+      <c r="BN22" s="40"/>
+      <c r="BO22" s="40"/>
+      <c r="BP22" s="40"/>
+      <c r="BQ22" s="40"/>
+      <c r="BR22" s="40"/>
+      <c r="BS22" s="40"/>
+      <c r="BT22" s="40"/>
+      <c r="BU22" s="40"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="40"/>
+      <c r="BY22" s="40"/>
+      <c r="BZ22" s="40"/>
+      <c r="CA22" s="40"/>
+      <c r="CB22" s="40"/>
+      <c r="CC22" s="40"/>
+      <c r="CD22" s="40"/>
+      <c r="CE22" s="38">
         <v>20</v>
       </c>
-      <c r="CF22" s="75"/>
-      <c r="CG22" s="75"/>
-      <c r="CH22" s="75"/>
+      <c r="CF22" s="38"/>
+      <c r="CG22" s="38"/>
+      <c r="CH22" s="38"/>
       <c r="CI22" s="39"/>
       <c r="CJ22" s="39"/>
       <c r="CK22" s="39"/>
@@ -2785,110 +2792,110 @@
     <row r="24" spans="1:108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
-      <c r="BL24" s="48"/>
-      <c r="BM24" s="48"/>
-      <c r="BN24" s="48"/>
-      <c r="BO24" s="48"/>
-      <c r="BP24" s="48"/>
-      <c r="BQ24" s="48"/>
-      <c r="BR24" s="48"/>
-      <c r="BS24" s="48"/>
-      <c r="BT24" s="48"/>
-      <c r="BU24" s="48"/>
-      <c r="BV24" s="48"/>
-      <c r="BW24" s="48"/>
-      <c r="BX24" s="48"/>
-      <c r="BY24" s="48"/>
-      <c r="BZ24" s="48"/>
-      <c r="CA24" s="48"/>
-      <c r="CB24" s="48"/>
-      <c r="CC24" s="48"/>
-      <c r="CD24" s="48"/>
-      <c r="CE24" s="48"/>
-      <c r="CF24" s="48"/>
-      <c r="CG24" s="48"/>
-      <c r="CH24" s="48"/>
-      <c r="CI24" s="48"/>
-      <c r="CJ24" s="48"/>
-      <c r="CK24" s="48"/>
-      <c r="CL24" s="48"/>
-      <c r="CM24" s="48"/>
-      <c r="CN24" s="48"/>
-      <c r="CO24" s="48"/>
-      <c r="CP24" s="48"/>
-      <c r="CQ24" s="48"/>
-      <c r="CR24" s="48"/>
-      <c r="CS24" s="48"/>
-      <c r="CT24" s="48"/>
-      <c r="CU24" s="48"/>
-      <c r="CV24" s="48"/>
-      <c r="CW24" s="48"/>
-      <c r="CX24" s="48"/>
-      <c r="CY24" s="48"/>
-      <c r="CZ24" s="48"/>
-      <c r="DA24" s="49"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="76"/>
+      <c r="BC24" s="76"/>
+      <c r="BD24" s="76"/>
+      <c r="BE24" s="76"/>
+      <c r="BF24" s="76"/>
+      <c r="BG24" s="76"/>
+      <c r="BH24" s="76"/>
+      <c r="BI24" s="76"/>
+      <c r="BJ24" s="76"/>
+      <c r="BK24" s="76"/>
+      <c r="BL24" s="76"/>
+      <c r="BM24" s="76"/>
+      <c r="BN24" s="76"/>
+      <c r="BO24" s="76"/>
+      <c r="BP24" s="76"/>
+      <c r="BQ24" s="76"/>
+      <c r="BR24" s="76"/>
+      <c r="BS24" s="76"/>
+      <c r="BT24" s="76"/>
+      <c r="BU24" s="76"/>
+      <c r="BV24" s="76"/>
+      <c r="BW24" s="76"/>
+      <c r="BX24" s="76"/>
+      <c r="BY24" s="76"/>
+      <c r="BZ24" s="76"/>
+      <c r="CA24" s="76"/>
+      <c r="CB24" s="76"/>
+      <c r="CC24" s="76"/>
+      <c r="CD24" s="76"/>
+      <c r="CE24" s="76"/>
+      <c r="CF24" s="76"/>
+      <c r="CG24" s="76"/>
+      <c r="CH24" s="76"/>
+      <c r="CI24" s="76"/>
+      <c r="CJ24" s="76"/>
+      <c r="CK24" s="76"/>
+      <c r="CL24" s="76"/>
+      <c r="CM24" s="76"/>
+      <c r="CN24" s="76"/>
+      <c r="CO24" s="76"/>
+      <c r="CP24" s="76"/>
+      <c r="CQ24" s="76"/>
+      <c r="CR24" s="76"/>
+      <c r="CS24" s="76"/>
+      <c r="CT24" s="76"/>
+      <c r="CU24" s="76"/>
+      <c r="CV24" s="76"/>
+      <c r="CW24" s="76"/>
+      <c r="CX24" s="76"/>
+      <c r="CY24" s="76"/>
+      <c r="CZ24" s="76"/>
+      <c r="DA24" s="77"/>
     </row>
     <row r="25" spans="1:108" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
@@ -3128,86 +3135,86 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="41"/>
-      <c r="BL27" s="41"/>
-      <c r="BM27" s="41"/>
-      <c r="BN27" s="41"/>
-      <c r="BO27" s="41"/>
-      <c r="BP27" s="41"/>
-      <c r="BQ27" s="41"/>
-      <c r="BR27" s="41"/>
-      <c r="BS27" s="41"/>
-      <c r="BT27" s="41"/>
-      <c r="BU27" s="41"/>
-      <c r="BV27" s="41"/>
-      <c r="BW27" s="41"/>
-      <c r="BX27" s="41"/>
-      <c r="BY27" s="41"/>
-      <c r="BZ27" s="41"/>
-      <c r="CA27" s="41"/>
-      <c r="CB27" s="41"/>
-      <c r="CC27" s="41"/>
-      <c r="CD27" s="41"/>
-      <c r="CE27" s="41"/>
-      <c r="CF27" s="41"/>
-      <c r="CG27" s="41"/>
-      <c r="CH27" s="41"/>
-      <c r="CI27" s="41"/>
-      <c r="CJ27" s="41"/>
-      <c r="CK27" s="41"/>
-      <c r="CL27" s="41"/>
-      <c r="CM27" s="41"/>
-      <c r="CN27" s="41"/>
-      <c r="CO27" s="41"/>
-      <c r="CP27" s="41"/>
-      <c r="CQ27" s="41"/>
-      <c r="CR27" s="41"/>
-      <c r="CS27" s="41"/>
-      <c r="CT27" s="41"/>
-      <c r="CU27" s="41"/>
-      <c r="CV27" s="41"/>
-      <c r="CW27" s="41"/>
-      <c r="CX27" s="41"/>
-      <c r="CY27" s="41"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="96"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="96"/>
+      <c r="AO27" s="96"/>
+      <c r="AP27" s="96"/>
+      <c r="AQ27" s="96"/>
+      <c r="AR27" s="96"/>
+      <c r="AS27" s="96"/>
+      <c r="AT27" s="96"/>
+      <c r="AU27" s="96"/>
+      <c r="AV27" s="96"/>
+      <c r="AW27" s="96"/>
+      <c r="AX27" s="96"/>
+      <c r="AY27" s="96"/>
+      <c r="AZ27" s="96"/>
+      <c r="BA27" s="96"/>
+      <c r="BB27" s="96"/>
+      <c r="BC27" s="96"/>
+      <c r="BD27" s="96"/>
+      <c r="BE27" s="96"/>
+      <c r="BF27" s="96"/>
+      <c r="BG27" s="96"/>
+      <c r="BH27" s="96"/>
+      <c r="BI27" s="96"/>
+      <c r="BJ27" s="96"/>
+      <c r="BK27" s="96"/>
+      <c r="BL27" s="96"/>
+      <c r="BM27" s="96"/>
+      <c r="BN27" s="96"/>
+      <c r="BO27" s="96"/>
+      <c r="BP27" s="96"/>
+      <c r="BQ27" s="96"/>
+      <c r="BR27" s="96"/>
+      <c r="BS27" s="96"/>
+      <c r="BT27" s="96"/>
+      <c r="BU27" s="96"/>
+      <c r="BV27" s="96"/>
+      <c r="BW27" s="96"/>
+      <c r="BX27" s="96"/>
+      <c r="BY27" s="96"/>
+      <c r="BZ27" s="96"/>
+      <c r="CA27" s="96"/>
+      <c r="CB27" s="96"/>
+      <c r="CC27" s="96"/>
+      <c r="CD27" s="96"/>
+      <c r="CE27" s="96"/>
+      <c r="CF27" s="96"/>
+      <c r="CG27" s="96"/>
+      <c r="CH27" s="96"/>
+      <c r="CI27" s="96"/>
+      <c r="CJ27" s="96"/>
+      <c r="CK27" s="96"/>
+      <c r="CL27" s="96"/>
+      <c r="CM27" s="96"/>
+      <c r="CN27" s="96"/>
+      <c r="CO27" s="96"/>
+      <c r="CP27" s="96"/>
+      <c r="CQ27" s="96"/>
+      <c r="CR27" s="96"/>
+      <c r="CS27" s="96"/>
+      <c r="CT27" s="96"/>
+      <c r="CU27" s="96"/>
+      <c r="CV27" s="96"/>
+      <c r="CW27" s="96"/>
+      <c r="CX27" s="96"/>
+      <c r="CY27" s="96"/>
       <c r="CZ27" s="18"/>
       <c r="DA27" s="19"/>
     </row>
@@ -3231,178 +3238,178 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="X28" s="42" t="s">
+      <c r="X28" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="42"/>
-      <c r="BS28" s="42"/>
-      <c r="BT28" s="42"/>
-      <c r="BU28" s="42"/>
-      <c r="BV28" s="42"/>
-      <c r="BW28" s="42"/>
-      <c r="BX28" s="42"/>
-      <c r="BY28" s="42"/>
-      <c r="BZ28" s="42"/>
-      <c r="CA28" s="42"/>
-      <c r="CB28" s="42"/>
-      <c r="CC28" s="42"/>
-      <c r="CD28" s="42"/>
-      <c r="CE28" s="42"/>
-      <c r="CF28" s="42"/>
-      <c r="CG28" s="42"/>
-      <c r="CH28" s="42"/>
-      <c r="CI28" s="42"/>
-      <c r="CJ28" s="42"/>
-      <c r="CK28" s="42"/>
-      <c r="CL28" s="42"/>
-      <c r="CM28" s="42"/>
-      <c r="CN28" s="42"/>
-      <c r="CO28" s="42"/>
-      <c r="CP28" s="42"/>
-      <c r="CQ28" s="42"/>
-      <c r="CR28" s="42"/>
-      <c r="CS28" s="42"/>
-      <c r="CT28" s="42"/>
-      <c r="CU28" s="42"/>
-      <c r="CV28" s="42"/>
-      <c r="CW28" s="42"/>
-      <c r="CX28" s="42"/>
-      <c r="CY28" s="42"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="97"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="97"/>
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="97"/>
+      <c r="AN28" s="97"/>
+      <c r="AO28" s="97"/>
+      <c r="AP28" s="97"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="97"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="97"/>
+      <c r="AY28" s="97"/>
+      <c r="AZ28" s="97"/>
+      <c r="BA28" s="97"/>
+      <c r="BB28" s="97"/>
+      <c r="BC28" s="97"/>
+      <c r="BD28" s="97"/>
+      <c r="BE28" s="97"/>
+      <c r="BF28" s="97"/>
+      <c r="BG28" s="97"/>
+      <c r="BH28" s="97"/>
+      <c r="BI28" s="97"/>
+      <c r="BJ28" s="97"/>
+      <c r="BK28" s="97"/>
+      <c r="BL28" s="97"/>
+      <c r="BM28" s="97"/>
+      <c r="BN28" s="97"/>
+      <c r="BO28" s="97"/>
+      <c r="BP28" s="97"/>
+      <c r="BQ28" s="97"/>
+      <c r="BR28" s="97"/>
+      <c r="BS28" s="97"/>
+      <c r="BT28" s="97"/>
+      <c r="BU28" s="97"/>
+      <c r="BV28" s="97"/>
+      <c r="BW28" s="97"/>
+      <c r="BX28" s="97"/>
+      <c r="BY28" s="97"/>
+      <c r="BZ28" s="97"/>
+      <c r="CA28" s="97"/>
+      <c r="CB28" s="97"/>
+      <c r="CC28" s="97"/>
+      <c r="CD28" s="97"/>
+      <c r="CE28" s="97"/>
+      <c r="CF28" s="97"/>
+      <c r="CG28" s="97"/>
+      <c r="CH28" s="97"/>
+      <c r="CI28" s="97"/>
+      <c r="CJ28" s="97"/>
+      <c r="CK28" s="97"/>
+      <c r="CL28" s="97"/>
+      <c r="CM28" s="97"/>
+      <c r="CN28" s="97"/>
+      <c r="CO28" s="97"/>
+      <c r="CP28" s="97"/>
+      <c r="CQ28" s="97"/>
+      <c r="CR28" s="97"/>
+      <c r="CS28" s="97"/>
+      <c r="CT28" s="97"/>
+      <c r="CU28" s="97"/>
+      <c r="CV28" s="97"/>
+      <c r="CW28" s="97"/>
+      <c r="CX28" s="97"/>
+      <c r="CY28" s="97"/>
       <c r="CZ28" s="1"/>
       <c r="DA28" s="23"/>
     </row>
     <row r="29" spans="1:108" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D29" s="24"/>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
       <c r="AC29" s="25"/>
       <c r="AD29" s="25"/>
       <c r="AE29" s="26"/>
       <c r="AF29" s="26"/>
       <c r="AG29" s="26"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="40"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="40"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="40"/>
-      <c r="AU29" s="40"/>
-      <c r="AV29" s="40"/>
-      <c r="AW29" s="40"/>
-      <c r="AX29" s="40"/>
-      <c r="AY29" s="40"/>
-      <c r="AZ29" s="40"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="40"/>
-      <c r="BC29" s="40"/>
-      <c r="BD29" s="40"/>
-      <c r="BE29" s="40"/>
-      <c r="BF29" s="40"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="95"/>
+      <c r="AP29" s="95"/>
+      <c r="AQ29" s="95"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
       <c r="BG29" s="27"/>
       <c r="BH29" s="27"/>
       <c r="BI29" s="27"/>
       <c r="BJ29" s="27"/>
-      <c r="BK29" s="40"/>
-      <c r="BL29" s="40"/>
-      <c r="BM29" s="40"/>
-      <c r="BN29" s="40"/>
-      <c r="BO29" s="40"/>
-      <c r="BP29" s="40"/>
-      <c r="BQ29" s="40"/>
-      <c r="BR29" s="40"/>
-      <c r="BS29" s="40"/>
-      <c r="BT29" s="40"/>
-      <c r="BU29" s="40"/>
-      <c r="BV29" s="40"/>
-      <c r="BW29" s="40"/>
-      <c r="BX29" s="40"/>
-      <c r="BY29" s="40"/>
-      <c r="BZ29" s="40"/>
-      <c r="CA29" s="40"/>
-      <c r="CB29" s="40"/>
-      <c r="CC29" s="40"/>
-      <c r="CD29" s="40"/>
-      <c r="CE29" s="40"/>
-      <c r="CF29" s="40"/>
-      <c r="CG29" s="40"/>
-      <c r="CH29" s="40"/>
-      <c r="CI29" s="40"/>
-      <c r="CJ29" s="40"/>
-      <c r="CK29" s="40"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="95"/>
+      <c r="CC29" s="95"/>
+      <c r="CD29" s="95"/>
+      <c r="CE29" s="95"/>
+      <c r="CF29" s="95"/>
+      <c r="CG29" s="95"/>
+      <c r="CH29" s="95"/>
+      <c r="CI29" s="95"/>
+      <c r="CJ29" s="95"/>
+      <c r="CK29" s="95"/>
       <c r="CO29" s="26"/>
       <c r="CP29" s="26"/>
       <c r="CQ29" s="26"/>
@@ -3450,60 +3457,60 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AJ30" s="36" t="s">
+      <c r="AJ30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BK30" s="36" t="s">
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BK30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
-      <c r="BR30" s="36"/>
-      <c r="BS30" s="36"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="36"/>
-      <c r="BW30" s="36"/>
-      <c r="BX30" s="36"/>
-      <c r="BY30" s="36"/>
-      <c r="BZ30" s="36"/>
-      <c r="CA30" s="36"/>
-      <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
-      <c r="CD30" s="36"/>
-      <c r="CE30" s="36"/>
-      <c r="CF30" s="36"/>
-      <c r="CG30" s="36"/>
-      <c r="CH30" s="36"/>
-      <c r="CI30" s="36"/>
-      <c r="CJ30" s="36"/>
-      <c r="CK30" s="36"/>
+      <c r="BL30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BN30" s="37"/>
+      <c r="BO30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BQ30" s="37"/>
+      <c r="BR30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BT30" s="37"/>
+      <c r="BU30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BW30" s="37"/>
+      <c r="BX30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="BZ30" s="37"/>
+      <c r="CA30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CC30" s="37"/>
+      <c r="CD30" s="37"/>
+      <c r="CE30" s="37"/>
+      <c r="CF30" s="37"/>
+      <c r="CG30" s="37"/>
+      <c r="CH30" s="37"/>
+      <c r="CI30" s="37"/>
+      <c r="CJ30" s="37"/>
+      <c r="CK30" s="37"/>
       <c r="CO30" s="1"/>
       <c r="CP30" s="1"/>
       <c r="CQ30" s="1"/>
@@ -3660,38 +3667,38 @@
       <c r="F33" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="38">
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="99">
         <v>20</v>
       </c>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
       <c r="AI33" s="39"/>
       <c r="AJ33" s="39"/>
       <c r="AK33" s="39"/>
@@ -3844,6 +3851,62 @@
     <row r="35" spans="4:105" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="AJ30:BF30"/>
+    <mergeCell ref="BK30:CK30"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="M33:AD33"/>
+    <mergeCell ref="AE33:AH33"/>
+    <mergeCell ref="AI33:AL33"/>
+    <mergeCell ref="AJ29:BF29"/>
+    <mergeCell ref="BK29:CK29"/>
+    <mergeCell ref="X27:CY27"/>
+    <mergeCell ref="X28:CY28"/>
+    <mergeCell ref="W20:AM20"/>
+    <mergeCell ref="BG22:BJ22"/>
+    <mergeCell ref="BM22:CD22"/>
+    <mergeCell ref="E29:AB29"/>
+    <mergeCell ref="A2:CP2"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="L19:U19"/>
+    <mergeCell ref="W19:AM19"/>
+    <mergeCell ref="D24:DA24"/>
+    <mergeCell ref="CQ16:DD16"/>
+    <mergeCell ref="CQ2:DD2"/>
+    <mergeCell ref="CQ3:DD3"/>
+    <mergeCell ref="CQ4:DD4"/>
+    <mergeCell ref="CQ5:DD6"/>
+    <mergeCell ref="CQ9:DD9"/>
+    <mergeCell ref="CQ10:DD10"/>
+    <mergeCell ref="CQ7:DD8"/>
+    <mergeCell ref="CD15:CP15"/>
+    <mergeCell ref="BE19:BN19"/>
+    <mergeCell ref="BP19:BY19"/>
+    <mergeCell ref="AO19:BA19"/>
+    <mergeCell ref="A16:AR16"/>
+    <mergeCell ref="AH4:BA4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="L6:CC6"/>
+    <mergeCell ref="AS12:BD13"/>
+    <mergeCell ref="BE12:BP13"/>
+    <mergeCell ref="Y9:CC9"/>
+    <mergeCell ref="BE8:CC8"/>
+    <mergeCell ref="A12:AR13"/>
+    <mergeCell ref="BQ12:CP12"/>
+    <mergeCell ref="BQ13:CC13"/>
+    <mergeCell ref="A15:AR15"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CC14"/>
+    <mergeCell ref="CQ14:DD14"/>
+    <mergeCell ref="CD13:CP13"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CC15"/>
+    <mergeCell ref="CQ12:DD13"/>
     <mergeCell ref="CG6:CO6"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="L20:U20"/>
@@ -3860,62 +3923,6 @@
     <mergeCell ref="CA20:CQ20"/>
     <mergeCell ref="CQ15:DD15"/>
     <mergeCell ref="CD14:CP14"/>
-    <mergeCell ref="CD13:CP13"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CC15"/>
-    <mergeCell ref="CQ12:DD13"/>
-    <mergeCell ref="A14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CC14"/>
-    <mergeCell ref="CQ14:DD14"/>
-    <mergeCell ref="AO19:BA19"/>
-    <mergeCell ref="A16:AR16"/>
-    <mergeCell ref="AH4:BA4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="L6:CC6"/>
-    <mergeCell ref="AS12:BD13"/>
-    <mergeCell ref="BE12:BP13"/>
-    <mergeCell ref="Y9:CC9"/>
-    <mergeCell ref="BE8:CC8"/>
-    <mergeCell ref="A12:AR13"/>
-    <mergeCell ref="BQ12:CP12"/>
-    <mergeCell ref="BQ13:CC13"/>
-    <mergeCell ref="A15:AR15"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A2:CP2"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="L19:U19"/>
-    <mergeCell ref="W19:AM19"/>
-    <mergeCell ref="D24:DA24"/>
-    <mergeCell ref="CQ16:DD16"/>
-    <mergeCell ref="CQ2:DD2"/>
-    <mergeCell ref="CQ3:DD3"/>
-    <mergeCell ref="CQ4:DD4"/>
-    <mergeCell ref="CQ5:DD6"/>
-    <mergeCell ref="CQ9:DD9"/>
-    <mergeCell ref="CQ10:DD10"/>
-    <mergeCell ref="CQ7:DD8"/>
-    <mergeCell ref="CD15:CP15"/>
-    <mergeCell ref="BE19:BN19"/>
-    <mergeCell ref="BP19:BY19"/>
-    <mergeCell ref="AJ29:BF29"/>
-    <mergeCell ref="BK29:CK29"/>
-    <mergeCell ref="X27:CY27"/>
-    <mergeCell ref="X28:CY28"/>
-    <mergeCell ref="W20:AM20"/>
-    <mergeCell ref="BG22:BJ22"/>
-    <mergeCell ref="BM22:CD22"/>
-    <mergeCell ref="E29:AB29"/>
-    <mergeCell ref="AJ30:BF30"/>
-    <mergeCell ref="BK30:CK30"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="M33:AD33"/>
-    <mergeCell ref="AE33:AH33"/>
-    <mergeCell ref="AI33:AL33"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.31496062992125984" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
